--- a/--MANUSCRIPT--/Resubmission Files/Cofactor_rescaled.xlsx
+++ b/--MANUSCRIPT--/Resubmission Files/Cofactor_rescaled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="780" windowWidth="10700" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="7360" yWindow="460" windowWidth="18900" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>EtOH</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>B3</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -294,7 +296,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -407,11 +408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-735673424"/>
-        <c:axId val="-764924224"/>
+        <c:axId val="-787633296"/>
+        <c:axId val="-787687216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-735673424"/>
+        <c:axId val="-787633296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,12 +455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764924224"/>
+        <c:crossAx val="-787687216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-764924224"/>
+        <c:axId val="-787687216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-735673424"/>
+        <c:crossAx val="-787633296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -776,11 +777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-764304160"/>
-        <c:axId val="-736705984"/>
+        <c:axId val="-774986896"/>
+        <c:axId val="-858212496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-764304160"/>
+        <c:axId val="-774986896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,12 +824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736705984"/>
+        <c:crossAx val="-858212496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-736705984"/>
+        <c:axId val="-858212496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764304160"/>
+        <c:crossAx val="-774986896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1145,11 +1146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-702170752"/>
-        <c:axId val="-768708544"/>
+        <c:axId val="-860826176"/>
+        <c:axId val="-856260432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-702170752"/>
+        <c:axId val="-860826176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,12 +1193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-768708544"/>
+        <c:crossAx val="-856260432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-768708544"/>
+        <c:axId val="-856260432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702170752"/>
+        <c:crossAx val="-860826176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3315,12 +3316,12 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.0201866699999999E-2</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9.7677447400000006E-2</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.20425439549999999</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.33514217499999999</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.46581289339999998</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.55914912090000002</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.73258085520000005</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.86998046449999999</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0457998697999999</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1953548946999999</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3800,6 +3801,9 @@
       </c>
       <c r="N16" t="s">
         <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.2">
